--- a/excels/Trad PHB.xlsx
+++ b/excels/Trad PHB.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="326" yWindow="95" windowWidth="25349" windowHeight="11167" tabRatio="854" activeTab="10"/>
+    <workbookView xWindow="326" yWindow="95" windowWidth="25349" windowHeight="11167" tabRatio="854" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Indice" sheetId="1" r:id="rId1"/>
@@ -9764,7 +9764,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D362"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A288" workbookViewId="0">
+    <sheetView topLeftCell="A288" workbookViewId="0">
       <selection activeCell="B306" sqref="B306"/>
     </sheetView>
   </sheetViews>
@@ -17454,8 +17454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>

--- a/excels/Trad PHB.xlsx
+++ b/excels/Trad PHB.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="326" yWindow="95" windowWidth="25349" windowHeight="11167" tabRatio="854" activeTab="3"/>
+    <workbookView xWindow="326" yWindow="95" windowWidth="25349" windowHeight="11167" tabRatio="854" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Indice" sheetId="1" r:id="rId1"/>
@@ -9764,8 +9764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D362"/>
   <sheetViews>
-    <sheetView topLeftCell="A288" workbookViewId="0">
-      <selection activeCell="B306" sqref="B306"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -17454,7 +17454,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>

--- a/excels/Trad PHB.xlsx
+++ b/excels/Trad PHB.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="326" yWindow="95" windowWidth="25349" windowHeight="11167" tabRatio="854" activeTab="10"/>
+    <workbookView xWindow="326" yWindow="95" windowWidth="25349" windowHeight="11167" tabRatio="854" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Indice" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3015" uniqueCount="2612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3015" uniqueCount="2613">
   <si>
     <t>Introducción</t>
   </si>
@@ -7882,6 +7882,9 @@
   </si>
   <si>
     <t>radiante</t>
+  </si>
+  <si>
+    <t>Paladín</t>
   </si>
 </sst>
 </file>
@@ -9764,8 +9767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D362"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="B88" sqref="B88"/>
+    <sheetView topLeftCell="A329" workbookViewId="0">
+      <selection activeCell="B347" sqref="B347"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -12689,8 +12692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AV12"/>
   <sheetViews>
-    <sheetView topLeftCell="AG1" workbookViewId="0">
-      <selection activeCell="AG7" sqref="AG7"/>
+    <sheetView topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="Z3" sqref="Z3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -12777,7 +12780,7 @@
       </c>
       <c r="X2"/>
       <c r="Z2" s="10" t="s">
-        <v>2078</v>
+        <v>2612</v>
       </c>
       <c r="AA2" s="10" t="s">
         <v>2078</v>
@@ -17990,8 +17993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D197"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -19644,8 +19647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>

--- a/excels/Trad PHB.xlsx
+++ b/excels/Trad PHB.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="326" yWindow="95" windowWidth="25349" windowHeight="11167" tabRatio="854" activeTab="6"/>
+    <workbookView xWindow="326" yWindow="95" windowWidth="25349" windowHeight="11167" tabRatio="854" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Indice" sheetId="1" r:id="rId1"/>
@@ -9767,8 +9767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D362"/>
   <sheetViews>
-    <sheetView topLeftCell="A329" workbookViewId="0">
-      <selection activeCell="B347" sqref="B347"/>
+    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
+      <selection activeCell="B230" sqref="B230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -12692,8 +12692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AV12"/>
   <sheetViews>
-    <sheetView topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="Z3" sqref="Z3"/>
+    <sheetView topLeftCell="AJ1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:AU2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -19647,7 +19647,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>

--- a/excels/Trad PHB.xlsx
+++ b/excels/Trad PHB.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="326" yWindow="95" windowWidth="25349" windowHeight="11167" tabRatio="854" activeTab="10"/>
+    <workbookView xWindow="326" yWindow="95" windowWidth="25349" windowHeight="11167" tabRatio="854" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Indice" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,8 @@
     <sheet name="feat" sheetId="17" r:id="rId17"/>
     <sheet name="monster" sheetId="18" r:id="rId18"/>
     <sheet name="deity" sheetId="19" r:id="rId19"/>
-    <sheet name="Temporal" sheetId="2" r:id="rId20"/>
+    <sheet name="table" sheetId="21" r:id="rId20"/>
+    <sheet name="Temporal" sheetId="2" r:id="rId21"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">action!$B$1:$C$1</definedName>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3015" uniqueCount="2613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3020" uniqueCount="2616">
   <si>
     <t>Introducción</t>
   </si>
@@ -7885,6 +7886,15 @@
   </si>
   <si>
     <t>Paladín</t>
+  </si>
+  <si>
+    <t>Ponerse y quitarse la armadura</t>
+  </si>
+  <si>
+    <t>Sobrecarga de Magia Salvaje</t>
+  </si>
+  <si>
+    <t>Habilidades</t>
   </si>
 </sst>
 </file>
@@ -9767,7 +9777,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D362"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
+    <sheetView topLeftCell="A176" workbookViewId="0">
       <selection activeCell="B230" sqref="B230"/>
     </sheetView>
   </sheetViews>
@@ -17114,7 +17124,7 @@
   <dimension ref="B1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -17315,6 +17325,48 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="28.5" customWidth="1"/>
+    <col min="3" max="3" width="21.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="16.3" x14ac:dyDescent="0.3">
+      <c r="B1" s="5" t="s">
+        <v>582</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>2613</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>2614</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>2615</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E1"/>
   <sheetViews>
@@ -17993,8 +18045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D197"/>
   <sheetViews>
-    <sheetView topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="C84" sqref="C84"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>

--- a/excels/Trad PHB.xlsx
+++ b/excels/Trad PHB.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="326" yWindow="95" windowWidth="25349" windowHeight="11167" tabRatio="854" activeTab="4"/>
+    <workbookView xWindow="326" yWindow="95" windowWidth="25349" windowHeight="11167" tabRatio="854" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Indice" sheetId="1" r:id="rId1"/>
@@ -12702,8 +12702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AV12"/>
   <sheetViews>
-    <sheetView topLeftCell="AJ1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:AU2"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AQ3" sqref="AQ3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -14240,7 +14240,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AV55"/>
   <sheetViews>
-    <sheetView topLeftCell="AJ1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="AU32" sqref="AU32"/>
     </sheetView>
   </sheetViews>
@@ -15818,8 +15818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:X38"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="W36" sqref="W36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="W20" sqref="W20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -18045,7 +18045,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+    <sheetView topLeftCell="A56" workbookViewId="0">
       <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>

--- a/excels/Trad PHB.xlsx
+++ b/excels/Trad PHB.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="326" yWindow="95" windowWidth="25349" windowHeight="11167" tabRatio="854" activeTab="11"/>
+    <workbookView xWindow="326" yWindow="95" windowWidth="25349" windowHeight="11167" tabRatio="854" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Indice" sheetId="1" r:id="rId1"/>
@@ -12702,7 +12702,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AV12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+    <sheetView topLeftCell="R1" workbookViewId="0">
       <selection activeCell="AQ3" sqref="AQ3"/>
     </sheetView>
   </sheetViews>
@@ -17509,8 +17509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -17532,466 +17532,466 @@
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>584</v>
+        <v>623</v>
       </c>
       <c r="C2" t="s">
-        <v>583</v>
+        <v>622</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>586</v>
+        <v>679</v>
       </c>
       <c r="C3" t="s">
-        <v>585</v>
+        <v>678</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>588</v>
+        <v>645</v>
       </c>
       <c r="C4" t="s">
-        <v>587</v>
+        <v>644</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>590</v>
+        <v>659</v>
       </c>
       <c r="C5" t="s">
-        <v>589</v>
+        <v>658</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>592</v>
+        <v>693</v>
       </c>
       <c r="C6" t="s">
-        <v>591</v>
+        <v>692</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>594</v>
+        <v>639</v>
       </c>
       <c r="C7" t="s">
-        <v>593</v>
+        <v>637</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>596</v>
+        <v>696</v>
       </c>
       <c r="C8" t="s">
-        <v>595</v>
+        <v>695</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>598</v>
+        <v>638</v>
       </c>
       <c r="C9" t="s">
-        <v>597</v>
+        <v>632</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>779</v>
+        <v>663</v>
       </c>
       <c r="C10" t="s">
-        <v>599</v>
+        <v>662</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>601</v>
+        <v>688</v>
       </c>
       <c r="C11" t="s">
-        <v>600</v>
+        <v>686</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>604</v>
+        <v>687</v>
       </c>
       <c r="C12" t="s">
-        <v>602</v>
+        <v>689</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>603</v>
+        <v>627</v>
       </c>
       <c r="C13" t="s">
-        <v>605</v>
+        <v>626</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>607</v>
+        <v>641</v>
       </c>
       <c r="C14" t="s">
-        <v>606</v>
+        <v>640</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>609</v>
+        <v>631</v>
       </c>
       <c r="C15" t="s">
-        <v>608</v>
+        <v>630</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>611</v>
+        <v>665</v>
       </c>
       <c r="C16" t="s">
-        <v>610</v>
+        <v>664</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>613</v>
+        <v>665</v>
       </c>
       <c r="C17" t="s">
-        <v>612</v>
+        <v>694</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>615</v>
+        <v>779</v>
       </c>
       <c r="C18" t="s">
-        <v>614</v>
+        <v>599</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>617</v>
+        <v>590</v>
       </c>
       <c r="C19" t="s">
-        <v>616</v>
+        <v>589</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>619</v>
+        <v>675</v>
       </c>
       <c r="C20" t="s">
-        <v>618</v>
+        <v>674</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>621</v>
+        <v>596</v>
       </c>
       <c r="C21" t="s">
-        <v>620</v>
+        <v>595</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>623</v>
+        <v>673</v>
       </c>
       <c r="C22" t="s">
-        <v>622</v>
+        <v>672</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>625</v>
+        <v>598</v>
       </c>
       <c r="C23" t="s">
-        <v>624</v>
+        <v>597</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>627</v>
+        <v>669</v>
       </c>
       <c r="C24" t="s">
-        <v>626</v>
+        <v>668</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>629</v>
+        <v>607</v>
       </c>
       <c r="C25" t="s">
-        <v>628</v>
+        <v>606</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>631</v>
+        <v>609</v>
       </c>
       <c r="C26" t="s">
-        <v>630</v>
+        <v>608</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>638</v>
+        <v>611</v>
       </c>
       <c r="C27" t="s">
-        <v>632</v>
+        <v>610</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>634</v>
+        <v>592</v>
       </c>
       <c r="C28" t="s">
-        <v>633</v>
+        <v>591</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>636</v>
+        <v>594</v>
       </c>
       <c r="C29" t="s">
-        <v>635</v>
+        <v>593</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>639</v>
+        <v>677</v>
       </c>
       <c r="C30" t="s">
-        <v>637</v>
+        <v>676</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>641</v>
+        <v>681</v>
       </c>
       <c r="C31" t="s">
-        <v>640</v>
+        <v>680</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="C32" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>645</v>
+        <v>621</v>
       </c>
       <c r="C33" t="s">
-        <v>644</v>
+        <v>620</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>647</v>
+        <v>667</v>
       </c>
       <c r="C34" t="s">
-        <v>646</v>
+        <v>666</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>649</v>
+        <v>613</v>
       </c>
       <c r="C35" t="s">
-        <v>648</v>
+        <v>612</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>651</v>
+        <v>584</v>
       </c>
       <c r="C36" t="s">
-        <v>650</v>
+        <v>583</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>653</v>
+        <v>586</v>
       </c>
       <c r="C37" t="s">
-        <v>652</v>
+        <v>585</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>655</v>
+        <v>601</v>
       </c>
       <c r="C38" t="s">
-        <v>654</v>
+        <v>600</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>657</v>
+        <v>619</v>
       </c>
       <c r="C39" t="s">
-        <v>656</v>
+        <v>618</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>659</v>
+        <v>615</v>
       </c>
       <c r="C40" t="s">
-        <v>658</v>
+        <v>614</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>661</v>
+        <v>617</v>
       </c>
       <c r="C41" t="s">
-        <v>660</v>
+        <v>616</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>663</v>
+        <v>588</v>
       </c>
       <c r="C42" t="s">
-        <v>662</v>
+        <v>587</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>665</v>
+        <v>629</v>
       </c>
       <c r="C43" t="s">
-        <v>664</v>
+        <v>628</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>667</v>
+        <v>685</v>
       </c>
       <c r="C44" t="s">
-        <v>666</v>
+        <v>684</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>669</v>
+        <v>683</v>
       </c>
       <c r="C45" t="s">
-        <v>668</v>
+        <v>682</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>671</v>
+        <v>634</v>
       </c>
       <c r="C46" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>673</v>
+        <v>691</v>
       </c>
       <c r="C47" t="s">
-        <v>672</v>
+        <v>690</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>675</v>
+        <v>636</v>
       </c>
       <c r="C48" t="s">
-        <v>674</v>
+        <v>635</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>677</v>
+        <v>706</v>
       </c>
       <c r="C49" t="s">
-        <v>676</v>
+        <v>705</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>679</v>
+        <v>653</v>
       </c>
       <c r="C50" t="s">
-        <v>678</v>
+        <v>652</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>681</v>
+        <v>704</v>
       </c>
       <c r="C51" t="s">
-        <v>680</v>
+        <v>703</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>683</v>
+        <v>643</v>
       </c>
       <c r="C52" t="s">
-        <v>682</v>
+        <v>642</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>685</v>
+        <v>649</v>
       </c>
       <c r="C53" t="s">
-        <v>684</v>
+        <v>648</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>688</v>
+        <v>651</v>
       </c>
       <c r="C54" t="s">
-        <v>686</v>
+        <v>650</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>687</v>
+        <v>625</v>
       </c>
       <c r="C55" t="s">
-        <v>689</v>
+        <v>624</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>691</v>
+        <v>657</v>
       </c>
       <c r="C56" t="s">
-        <v>690</v>
+        <v>656</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>693</v>
+        <v>661</v>
       </c>
       <c r="C57" t="s">
-        <v>692</v>
+        <v>660</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>665</v>
+        <v>702</v>
       </c>
       <c r="C58" t="s">
-        <v>694</v>
+        <v>701</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>696</v>
+        <v>655</v>
       </c>
       <c r="C59" t="s">
-        <v>695</v>
+        <v>654</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.25">
@@ -18004,38 +18004,42 @@
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>700</v>
+        <v>671</v>
       </c>
       <c r="C61" t="s">
-        <v>699</v>
+        <v>670</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="C62" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>704</v>
+        <v>604</v>
       </c>
       <c r="C63" t="s">
-        <v>703</v>
+        <v>602</v>
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>706</v>
+        <v>603</v>
       </c>
       <c r="C64" t="s">
-        <v>705</v>
+        <v>605</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:C1"/>
+  <autoFilter ref="B1:C1">
+    <sortState ref="B2:C64">
+      <sortCondition ref="B1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="188" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
@@ -18045,8 +18049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D197"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -19646,7 +19650,7 @@
   <dimension ref="B1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
